--- a/Max Cut (Local Search)/MaxCut.xlsx
+++ b/Max Cut (Local Search)/MaxCut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3-2\CSE318\CSE318-AI\Max Cut (Local Search)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A2131E-72A7-48DA-872E-BD8856DA9E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99C354D-B7AB-40C4-9FD0-E80067F9310D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,10 +336,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -562,8 +559,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -577,7 +574,7 @@
     <col min="8" max="8" width="18" style="5" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" style="5" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="5" customWidth="1"/>
     <col min="12" max="12" width="16.85546875" style="5" customWidth="1"/>
     <col min="13" max="13" width="16.28515625" style="5" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" style="5" customWidth="1"/>
@@ -804,43 +801,43 @@
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="1">
         <v>800</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="1">
         <v>19176</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="1">
         <v>9588</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="1">
         <v>11225</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="1">
         <v>11211</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="1">
         <v>634</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="1">
         <v>11371</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="1">
         <v>92</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="1">
         <v>11400</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="1">
         <v>88</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="12">
         <v>11383</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="1">
         <v>60</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="1">
         <v>11474</v>
       </c>
       <c r="O7" s="1">
@@ -862,43 +859,43 @@
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="1">
         <v>800</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="1">
         <v>19176</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="1">
         <v>9591</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="1">
         <v>11250</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="1">
         <v>11040</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="1">
         <v>622</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="1">
         <v>11377</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="1">
         <v>69</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="1">
         <v>11386</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="1">
         <v>161</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="1">
         <v>11372</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="1">
         <v>60</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="1">
         <v>11470</v>
       </c>
       <c r="O8" s="1">
@@ -920,43 +917,43 @@
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="1">
         <v>800</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="1">
         <v>19176</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="1">
         <v>9588</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="1">
         <v>11222</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="1">
         <v>11036</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="1">
         <v>618</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="1">
         <v>11363</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="1">
         <v>105</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="1">
         <v>11417</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="1">
         <v>158</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="1">
         <v>11359</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="1">
         <v>60</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="1">
         <v>11467</v>
       </c>
       <c r="O9" s="1">
@@ -978,43 +975,43 @@
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="1">
         <v>800</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="1">
         <v>19176</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="1">
         <v>9586</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="1">
         <v>11287</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="1">
         <v>11038</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="1">
         <v>621</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="1">
         <v>11378</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="1">
         <v>79</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="1">
         <v>11435</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="1">
         <v>166</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="1">
         <v>11380</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="1">
         <v>60</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="1">
         <v>11457</v>
       </c>
       <c r="O10" s="1"/>
@@ -1034,43 +1031,43 @@
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="1">
         <v>800</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="1">
         <v>19176</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="1">
         <v>9579</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="1">
         <v>11248</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="1">
         <v>11027</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="1">
         <v>621</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="1">
         <v>11372</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="1">
         <v>58</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="1">
         <v>11365</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="1">
         <v>162</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="1">
         <v>11358</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="1">
         <v>60</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="1">
         <v>11467</v>
       </c>
       <c r="O11" s="1"/>
@@ -1090,43 +1087,43 @@
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="1">
         <v>800</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="1">
         <v>19176</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="1">
         <v>78</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="1">
         <v>1796</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="1">
         <v>1549</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="1">
         <v>635</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="1">
         <v>1915</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="1">
         <v>71</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="1">
         <v>1941</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="1">
         <v>170</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="1">
         <v>1906</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="1">
         <v>60</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="1">
         <v>1994</v>
       </c>
       <c r="O12" s="1"/>
@@ -1146,43 +1143,43 @@
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="1">
         <v>800</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="1">
         <v>19176</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="1">
         <v>-77</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="1">
         <v>1552</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="1">
         <v>1424</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="1">
         <v>624</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="1">
         <v>1752</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="1">
         <v>106</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="1">
         <v>1756</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="1">
         <v>151</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="1">
         <v>1743</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="1">
         <v>60</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="1">
         <v>1807</v>
       </c>
       <c r="O13" s="1"/>
@@ -1202,43 +1199,43 @@
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="1">
         <v>800</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="1">
         <v>19176</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="1">
         <v>-75</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="1">
         <v>1635</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="1">
         <v>1431</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="1">
         <v>629</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="1">
         <v>1761</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="1">
         <v>109</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="1">
         <v>1818</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="1">
         <v>154</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="1">
         <v>1750</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="1">
         <v>60</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="1">
         <v>1847</v>
       </c>
       <c r="O14" s="1"/>
@@ -1258,43 +1255,43 @@
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="1">
         <v>800</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="1">
         <v>19176</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="1">
         <v>-25</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="1">
         <v>1629</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="1">
         <v>1585</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="1">
         <v>623</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="1">
         <v>1800</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="1">
         <v>65</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="1">
         <v>1768</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="1">
         <v>110</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="1">
         <v>1806</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="1">
         <v>60</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="1">
         <v>1922</v>
       </c>
       <c r="O15" s="1"/>
@@ -1314,43 +1311,43 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="1">
         <v>800</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="1">
         <v>19176</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="1">
         <v>-79</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="1">
         <v>1665</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="1">
         <v>1423</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="1">
         <v>635</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="1">
         <v>1749</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="1">
         <v>47</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="1">
         <v>1766</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="1">
         <v>151</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="1">
         <v>1741</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="1">
         <v>60</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="1">
         <v>1853</v>
       </c>
       <c r="O16" s="1"/>
@@ -1370,43 +1367,43 @@
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="1">
         <v>800</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="1">
         <v>1600</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="1">
         <v>14</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="1">
         <v>485</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="1">
         <v>419</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="1">
         <v>184</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="1">
         <v>430</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="1">
         <v>1</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="1">
         <v>487</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="1">
         <v>13</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="1">
         <v>445</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="1">
         <v>60</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="1">
         <v>472</v>
       </c>
       <c r="O17" s="1">
@@ -1428,43 +1425,43 @@
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="1">
         <v>800</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="1">
         <v>1600</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="1">
         <v>-2</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="1">
         <v>479</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="1">
         <v>431</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="1">
         <v>188</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="1">
         <v>421</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="1">
         <v>4</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="1">
         <v>487</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="1">
         <v>10</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="1">
         <v>450</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="1">
         <v>60</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="1">
         <v>470</v>
       </c>
       <c r="O18" s="1">
@@ -1486,43 +1483,43 @@
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="1">
         <v>800</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="1">
         <v>1600</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="1">
         <v>13</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="1">
         <v>505</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="1">
         <v>420</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="1">
         <v>189</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="1">
         <v>441</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="1">
         <v>2</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="1">
         <v>509</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="1">
         <v>17</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="1">
         <v>455</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="1">
         <v>60</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="1">
         <v>480</v>
       </c>
       <c r="O19" s="1">
@@ -1544,43 +1541,43 @@
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="1">
         <v>800</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="1">
         <v>4694</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="1">
         <v>2354</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="1">
         <v>2927</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="1">
         <v>2925</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="1">
         <v>266</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="1">
         <v>2922</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="1">
         <v>33</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="1">
         <v>2972</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="1">
         <v>28</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="1">
         <v>2962</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="1">
         <v>60</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="1">
         <v>2988</v>
       </c>
       <c r="O20" s="1">
@@ -1602,43 +1599,43 @@
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="1">
         <v>800</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="1">
         <v>4661</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="1">
         <v>2332</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="1">
         <v>2890</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="1">
         <v>2876</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="1">
         <v>268</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="1">
         <v>2902</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="1">
         <v>46</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="1">
         <v>2946</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="1">
         <v>40</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="1">
         <v>2929</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="1">
         <v>60</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="1">
         <v>2960</v>
       </c>
       <c r="O21" s="1">
@@ -1660,43 +1657,43 @@
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="1">
         <v>800</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="1">
         <v>4672</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="1">
         <v>2338</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="1">
         <v>2886</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="1">
         <v>2914</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="1">
         <v>269</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="1">
         <v>2908</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="1">
         <v>43</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="1">
         <v>2941</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="1">
         <v>28</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="1">
         <v>2950</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="1">
         <v>60</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="1">
         <v>2980</v>
       </c>
       <c r="O22" s="1">
@@ -1718,43 +1715,43 @@
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="1">
         <v>800</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="1">
         <v>4667</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="1">
         <v>2336</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="1">
         <v>2904</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="1">
         <v>2905</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="1">
         <v>270</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="1">
         <v>2904</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="1">
         <v>38</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="1">
         <v>2957</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="1">
         <v>31</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="1">
         <v>2943</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="1">
         <v>60</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="1">
         <v>2969</v>
       </c>
       <c r="O23" s="1"/>
@@ -1774,43 +1771,43 @@
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="1">
         <v>800</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="1">
         <v>4694</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="1">
         <v>25</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="1">
         <v>839</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="1">
         <v>809</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="1">
         <v>324</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="1">
         <v>831</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="1">
         <v>33</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="1">
         <v>884</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="1">
         <v>39</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="1">
         <v>868</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="1">
         <v>60</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="1">
         <v>922</v>
       </c>
       <c r="O24" s="1"/>
@@ -1830,43 +1827,43 @@
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="1">
         <v>800</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="1">
         <v>4661</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="1">
         <v>-56</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="1">
         <v>756</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="1">
         <v>656</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="1">
         <v>331</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="1">
         <v>747</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="1">
         <v>33</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="1">
         <v>801</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="1">
         <v>64</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="1">
         <v>761</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="1">
         <v>60</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="1">
         <v>799</v>
       </c>
       <c r="O25" s="1"/>
@@ -1886,43 +1883,43 @@
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="1">
         <v>800</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="1">
         <v>4672</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="1">
         <v>-21</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="1">
         <v>777</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="1">
         <v>649</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="1">
         <v>328</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="1">
         <v>773</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="1">
         <v>33</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="1">
         <v>827</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="1">
         <v>74</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="1">
         <v>772</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M26" s="1">
         <v>60</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N26" s="1">
         <v>815</v>
       </c>
       <c r="O26" s="1"/>
@@ -1942,43 +1939,43 @@
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="1">
         <v>800</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="1">
         <v>4667</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="1">
         <v>-31</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="1">
         <v>793</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="1">
         <v>675</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="1">
         <v>334</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="1">
         <v>777</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="1">
         <v>23</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="1">
         <v>826</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="1">
         <v>64</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="1">
         <v>781</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="1">
         <v>60</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N27" s="1">
         <v>826</v>
       </c>
       <c r="O27" s="1"/>
@@ -1998,43 +1995,43 @@
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="1">
         <v>2000</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="1">
         <v>19990</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="1">
         <v>9987</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="1">
         <v>12747</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="1">
         <v>12657</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="1">
         <v>1134</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="1">
         <v>12813</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="1">
         <v>105</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="1">
         <v>12943</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28" s="1">
         <v>142</v>
       </c>
-      <c r="L28" s="12">
+      <c r="L28" s="1">
         <v>12899</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M28" s="1">
         <v>60</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N28" s="1">
         <v>12976</v>
       </c>
       <c r="O28" s="1">
@@ -2056,43 +2053,43 @@
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="1">
         <v>2000</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="1">
         <v>19990</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="1">
         <v>9988</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="1">
         <v>12785</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="1">
         <v>12774</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="1">
         <v>1133</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="1">
         <v>12818</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="1">
         <v>81</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="1">
         <v>12937</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="1">
         <v>105</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="1">
         <v>12952</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="1">
         <v>60</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N29" s="1">
         <v>13039</v>
       </c>
       <c r="O29" s="4">
@@ -2114,43 +2111,43 @@
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="1">
         <v>2000</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="1">
         <v>19990</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="1">
         <v>9977</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="1">
         <v>12811</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="1">
         <v>12670</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="1">
         <v>1137</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="1">
         <v>12814</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="1">
         <v>77</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="1">
         <v>12944</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="1">
         <v>130</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="1">
         <v>12898</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M30" s="1">
         <v>60</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N30" s="1">
         <v>12984</v>
       </c>
       <c r="O30" s="1">
@@ -2172,43 +2169,43 @@
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="1">
         <v>2000</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="1">
         <v>19990</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="1">
         <v>10002</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="1">
         <v>12831</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="1">
         <v>12773</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="1">
         <v>1135</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="1">
         <v>12825</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="1">
         <v>70</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="1">
         <v>12950</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="1">
         <v>105</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="1">
         <v>12951</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M31" s="1">
         <v>60</v>
       </c>
-      <c r="N31" s="12">
+      <c r="N31" s="1">
         <v>13024</v>
       </c>
       <c r="O31" s="1"/>
@@ -2228,43 +2225,43 @@
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="1">
         <v>2000</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="1">
         <v>19990</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="1">
         <v>9994</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="1">
         <v>12818</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="1">
         <v>12727</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="1">
         <v>1135</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="1">
         <v>12817</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="1">
         <v>81</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="1">
         <v>12958</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="1">
         <v>116</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="1">
         <v>12923</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="1">
         <v>60</v>
       </c>
-      <c r="N32" s="12">
+      <c r="N32" s="1">
         <v>13003</v>
       </c>
       <c r="O32" s="1"/>
@@ -2284,43 +2281,43 @@
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="1">
         <v>2000</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="1">
         <v>19990</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="1">
         <v>-20</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="1">
         <v>2707</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="1">
         <v>2639</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="1">
         <v>1139</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="1">
         <v>2807</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="1">
         <v>129</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="1">
         <v>2923</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="1">
         <v>145</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="1">
         <v>2885</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="1">
         <v>60</v>
       </c>
-      <c r="N33" s="12">
+      <c r="N33" s="1">
         <v>3006</v>
       </c>
       <c r="O33" s="1"/>
@@ -2340,43 +2337,43 @@
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="1">
         <v>2000</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="1">
         <v>19990</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="1">
         <v>-43</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="1">
         <v>2635</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="1">
         <v>2499</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="1">
         <v>1124</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="1">
         <v>2779</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="1">
         <v>119</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="1">
         <v>2847</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K34" s="1">
         <v>177</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="1">
         <v>2814</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M34" s="1">
         <v>60</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N34" s="1">
         <v>2925</v>
       </c>
       <c r="O34" s="1"/>
@@ -2396,43 +2393,43 @@
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="1">
         <v>2000</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="1">
         <v>19990</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="1">
         <v>46</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="1">
         <v>2724</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="1">
         <v>2428</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="1">
         <v>1133</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="1">
         <v>2876</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="1">
         <v>119</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="1">
         <v>2945</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K35" s="1">
         <v>244</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="1">
         <v>2872</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="1">
         <v>60</v>
       </c>
-      <c r="N35" s="12">
+      <c r="N35" s="1">
         <v>2971</v>
       </c>
       <c r="O35" s="1"/>
@@ -2452,43 +2449,43 @@
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="1">
         <v>2000</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="1">
         <v>19990</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="1">
         <v>27</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="1">
         <v>2718</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="1">
         <v>2387</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="1">
         <v>1147</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="1">
         <v>2883</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="1">
         <v>126</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="1">
         <v>2937</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K36" s="1">
         <v>258</v>
       </c>
-      <c r="L36" s="12">
+      <c r="L36" s="1">
         <v>2857</v>
       </c>
-      <c r="M36" s="12">
+      <c r="M36" s="1">
         <v>60</v>
       </c>
-      <c r="N36" s="12">
+      <c r="N36" s="1">
         <v>2977</v>
       </c>
       <c r="O36" s="1"/>
@@ -2508,43 +2505,43 @@
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="1">
         <v>2000</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="1">
         <v>19990</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="1">
         <v>-27</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="1">
         <v>2668</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="1">
         <v>2296</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="1">
         <v>1137</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="1">
         <v>2791</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="1">
         <v>158</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J37" s="1">
         <v>2931</v>
       </c>
-      <c r="K37" s="12">
+      <c r="K37" s="1">
         <v>272</v>
       </c>
-      <c r="L37" s="12">
+      <c r="L37" s="1">
         <v>2796</v>
       </c>
-      <c r="M37" s="12">
+      <c r="M37" s="1">
         <v>60</v>
       </c>
-      <c r="N37" s="12">
+      <c r="N37" s="1">
         <v>2895</v>
       </c>
       <c r="O37" s="1"/>
@@ -2564,43 +2561,43 @@
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="1">
         <v>2000</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="1">
         <v>4000</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="1">
         <v>10</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="1">
         <v>1225</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="1">
         <v>1015</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="1">
         <v>463</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="1">
         <v>1057</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="1">
         <v>13</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J38" s="1">
         <v>1251</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K38" s="1">
         <v>41</v>
       </c>
-      <c r="L38" s="12">
+      <c r="L38" s="1">
         <v>1098</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M38" s="1">
         <v>60</v>
       </c>
-      <c r="N38" s="12">
+      <c r="N38" s="1">
         <v>1156</v>
       </c>
       <c r="O38" s="1">
@@ -2622,43 +2619,43 @@
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="1">
         <v>2000</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="1">
         <v>4000</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="1">
         <v>-16</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="1">
         <v>1207</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="1">
         <v>982</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="1">
         <v>465</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="1">
         <v>1036</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="1">
         <v>8</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J39" s="1">
         <v>1223</v>
       </c>
-      <c r="K39" s="12">
+      <c r="K39" s="1">
         <v>44</v>
       </c>
-      <c r="L39" s="12">
+      <c r="L39" s="1">
         <v>1072</v>
       </c>
-      <c r="M39" s="12">
+      <c r="M39" s="1">
         <v>60</v>
       </c>
-      <c r="N39" s="12">
+      <c r="N39" s="1">
         <v>1118</v>
       </c>
       <c r="O39" s="1">
@@ -2680,43 +2677,43 @@
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="1">
         <v>2000</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="1">
         <v>4000</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="1">
         <v>-24</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="1">
         <v>1211</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="1">
         <v>976</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="1">
         <v>469</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="1">
         <v>1038</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="1">
         <v>11</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J40" s="1">
         <v>1233</v>
       </c>
-      <c r="K40" s="12">
+      <c r="K40" s="1">
         <v>43</v>
       </c>
-      <c r="L40" s="12">
+      <c r="L40" s="1">
         <v>1063</v>
       </c>
-      <c r="M40" s="12">
+      <c r="M40" s="1">
         <v>60</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N40" s="1">
         <v>1102</v>
       </c>
       <c r="O40" s="1">
@@ -2738,43 +2735,43 @@
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="1">
         <v>2000</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="1">
         <v>11778</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="1">
         <v>5897</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="1">
         <v>7334</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="1">
         <v>7364</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="1">
         <v>658</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="1">
         <v>7324</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="1">
         <v>77</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="1">
         <v>7441</v>
       </c>
-      <c r="K41" s="12">
+      <c r="K41" s="1">
         <v>58</v>
       </c>
-      <c r="L41" s="12">
+      <c r="L41" s="1">
         <v>7439</v>
       </c>
-      <c r="M41" s="12">
+      <c r="M41" s="1">
         <v>60</v>
       </c>
-      <c r="N41" s="12">
+      <c r="N41" s="1">
         <v>7467</v>
       </c>
       <c r="O41" s="1">
@@ -2796,43 +2793,43 @@
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="1">
         <v>2000</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="1">
         <v>11766</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="1">
         <v>5884</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="1">
         <v>7273</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="1">
         <v>7361</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="1">
         <v>670</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="1">
         <v>7323</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="1">
         <v>97</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J42" s="1">
         <v>7401</v>
       </c>
-      <c r="K42" s="12">
+      <c r="K42" s="1">
         <v>58</v>
       </c>
-      <c r="L42" s="12">
+      <c r="L42" s="1">
         <v>7435</v>
       </c>
-      <c r="M42" s="12">
+      <c r="M42" s="1">
         <v>60</v>
       </c>
-      <c r="N42" s="12">
+      <c r="N42" s="1">
         <v>7472</v>
       </c>
       <c r="O42" s="1">
@@ -2854,43 +2851,43 @@
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="1">
         <v>2000</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="1">
         <v>11785</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="1">
         <v>5891</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="1">
         <v>7315</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="1">
         <v>7321</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="1">
         <v>667</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="1">
         <v>7328</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="1">
         <v>88</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J43" s="1">
         <v>7443</v>
       </c>
-      <c r="K43" s="12">
+      <c r="K43" s="1">
         <v>78</v>
       </c>
-      <c r="L43" s="12">
+      <c r="L43" s="1">
         <v>7421</v>
       </c>
-      <c r="M43" s="12">
+      <c r="M43" s="1">
         <v>60</v>
       </c>
-      <c r="N43" s="12">
+      <c r="N43" s="1">
         <v>7461</v>
       </c>
       <c r="O43" s="1">
@@ -2912,43 +2909,43 @@
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="1">
         <v>2000</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="1">
         <v>11779</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="1">
         <v>5886</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="1">
         <v>7307</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="1">
         <v>7188</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="1">
         <v>665</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="1">
         <v>7326</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="1">
         <v>89</v>
       </c>
-      <c r="J44" s="12">
+      <c r="J44" s="1">
         <v>7426</v>
       </c>
-      <c r="K44" s="12">
+      <c r="K44" s="1">
         <v>124</v>
       </c>
-      <c r="L44" s="12">
+      <c r="L44" s="1">
         <v>7359</v>
       </c>
-      <c r="M44" s="12">
+      <c r="M44" s="1">
         <v>60</v>
       </c>
-      <c r="N44" s="12">
+      <c r="N44" s="1">
         <v>7393</v>
       </c>
       <c r="O44" s="1"/>
@@ -2968,43 +2965,43 @@
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="1">
         <v>2000</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="1">
         <v>11778</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="1">
         <v>12</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="1">
         <v>2034</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="1">
         <v>1981</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="1">
         <v>808</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="1">
         <v>2011</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="1">
         <v>75</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J45" s="1">
         <v>2134</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K45" s="1">
         <v>88</v>
       </c>
-      <c r="L45" s="12">
+      <c r="L45" s="1">
         <v>2114</v>
       </c>
-      <c r="M45" s="12">
+      <c r="M45" s="1">
         <v>60</v>
       </c>
-      <c r="N45" s="12">
+      <c r="N45" s="1">
         <v>2197</v>
       </c>
       <c r="O45" s="1"/>
@@ -3024,43 +3021,43 @@
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="1">
         <v>2000</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="1">
         <v>11766</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="1">
         <v>-47</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="1">
         <v>2042</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="1">
         <v>1642</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="1">
         <v>830</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="1">
         <v>1993</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="1">
         <v>53</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J46" s="1">
         <v>2123</v>
       </c>
-      <c r="K46" s="12">
+      <c r="K46" s="1">
         <v>197</v>
       </c>
-      <c r="L46" s="12">
+      <c r="L46" s="1">
         <v>1977</v>
       </c>
-      <c r="M46" s="12">
+      <c r="M46" s="1">
         <v>60</v>
       </c>
-      <c r="N46" s="12">
+      <c r="N46" s="1">
         <v>2042</v>
       </c>
       <c r="O46" s="1"/>
@@ -3080,43 +3077,43 @@
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="1">
         <v>2000</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="1">
         <v>11785</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="1">
         <v>-2</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="1">
         <v>2052</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="1">
         <v>1689</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="1">
         <v>816</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="1">
         <v>1990</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I47" s="1">
         <v>47</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J47" s="1">
         <v>2120</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K47" s="1">
         <v>185</v>
       </c>
-      <c r="L47" s="12">
+      <c r="L47" s="1">
         <v>2001</v>
       </c>
-      <c r="M47" s="12">
+      <c r="M47" s="1">
         <v>60</v>
       </c>
-      <c r="N47" s="12">
+      <c r="N47" s="1">
         <v>2071</v>
       </c>
       <c r="O47" s="1"/>
@@ -3136,43 +3133,43 @@
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="1">
         <v>2000</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="1">
         <v>11779</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="1">
         <v>47</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="1">
         <v>2117</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="1">
         <v>2033</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="1">
         <v>820</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="1">
         <v>2074</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="1">
         <v>52</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J48" s="1">
         <v>2186</v>
       </c>
-      <c r="K48" s="12">
+      <c r="K48" s="1">
         <v>95</v>
       </c>
-      <c r="L48" s="12">
+      <c r="L48" s="1">
         <v>2181</v>
       </c>
-      <c r="M48" s="12">
+      <c r="M48" s="1">
         <v>60</v>
       </c>
-      <c r="N48" s="12">
+      <c r="N48" s="1">
         <v>2243</v>
       </c>
       <c r="O48" s="1"/>
@@ -3192,43 +3189,43 @@
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="1">
         <v>1000</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="1">
         <v>9990</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="1">
         <v>4995</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="1">
         <v>6384</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="1">
         <v>6368</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="1">
         <v>571</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="1">
         <v>6402</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="1">
         <v>33</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J49" s="1">
         <v>6437</v>
       </c>
-      <c r="K49" s="12">
+      <c r="K49" s="1">
         <v>55</v>
       </c>
-      <c r="L49" s="12">
+      <c r="L49" s="1">
         <v>6459</v>
       </c>
-      <c r="M49" s="12">
+      <c r="M49" s="1">
         <v>60</v>
       </c>
-      <c r="N49" s="12">
+      <c r="N49" s="1">
         <v>6521</v>
       </c>
       <c r="O49" s="1">
@@ -3250,43 +3247,43 @@
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="1">
         <v>1000</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="1">
         <v>9990</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="1">
         <v>4996</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="1">
         <v>6371</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="1">
         <v>6292</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="1">
         <v>565</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="1">
         <v>6401</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="1">
         <v>55</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J50" s="1">
         <v>6450</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K50" s="1">
         <v>82</v>
       </c>
-      <c r="L50" s="12">
+      <c r="L50" s="1">
         <v>6433</v>
       </c>
-      <c r="M50" s="12">
+      <c r="M50" s="1">
         <v>60</v>
       </c>
-      <c r="N50" s="12">
+      <c r="N50" s="1">
         <v>6485</v>
       </c>
       <c r="O50" s="1">
@@ -3308,43 +3305,43 @@
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="1">
         <v>1000</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="1">
         <v>9990</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="1">
         <v>4991</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="1">
         <v>6423</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="1">
         <v>6216</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="1">
         <v>559</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="1">
         <v>6390</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I51" s="1">
         <v>32</v>
       </c>
-      <c r="J51" s="12">
+      <c r="J51" s="1">
         <v>6479</v>
       </c>
-      <c r="K51" s="12">
+      <c r="K51" s="1">
         <v>108</v>
       </c>
-      <c r="L51" s="12">
+      <c r="L51" s="1">
         <v>6407</v>
       </c>
-      <c r="M51" s="12">
+      <c r="M51" s="1">
         <v>60</v>
       </c>
-      <c r="N51" s="12">
+      <c r="N51" s="1">
         <v>6472</v>
       </c>
       <c r="O51" s="1">
@@ -3366,43 +3363,43 @@
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="1">
         <v>1000</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="1">
         <v>9990</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="1">
         <v>4991</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="1">
         <v>6410</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="1">
         <v>6343</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="1">
         <v>564</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52" s="1">
         <v>6399</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I52" s="1">
         <v>42</v>
       </c>
-      <c r="J52" s="12">
+      <c r="J52" s="1">
         <v>6490</v>
       </c>
-      <c r="K52" s="12">
+      <c r="K52" s="1">
         <v>62</v>
       </c>
-      <c r="L52" s="12">
+      <c r="L52" s="1">
         <v>6447</v>
       </c>
-      <c r="M52" s="12">
+      <c r="M52" s="1">
         <v>60</v>
       </c>
-      <c r="N52" s="12">
+      <c r="N52" s="1">
         <v>6508</v>
       </c>
       <c r="O52" s="1"/>
@@ -3422,43 +3419,43 @@
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="1">
         <v>1000</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="1">
         <v>9990</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="1">
         <v>4982</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="1">
         <v>6330</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="1">
         <v>6269</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G53" s="1">
         <v>578</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53" s="1">
         <v>6406</v>
       </c>
-      <c r="I53" s="12">
+      <c r="I53" s="1">
         <v>52</v>
       </c>
-      <c r="J53" s="12">
+      <c r="J53" s="1">
         <v>6435</v>
       </c>
-      <c r="K53" s="12">
+      <c r="K53" s="1">
         <v>90</v>
       </c>
-      <c r="L53" s="12">
+      <c r="L53" s="1">
         <v>6424</v>
       </c>
-      <c r="M53" s="12">
+      <c r="M53" s="1">
         <v>60</v>
       </c>
-      <c r="N53" s="12">
+      <c r="N53" s="1">
         <v>6486</v>
       </c>
       <c r="O53" s="1"/>
@@ -3478,43 +3475,43 @@
       <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="1">
         <v>3000</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="1">
         <v>6000</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="1">
         <v>3000</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="1">
         <v>5999</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="1">
         <v>5731</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="1">
         <v>835</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H54" s="1">
         <v>5017</v>
       </c>
-      <c r="I54" s="12">
+      <c r="I54" s="1">
         <v>0</v>
       </c>
-      <c r="J54" s="12">
+      <c r="J54" s="1">
         <v>5999</v>
       </c>
-      <c r="K54" s="12">
+      <c r="K54" s="1">
         <v>2</v>
       </c>
-      <c r="L54" s="12">
+      <c r="L54" s="1">
         <v>5735</v>
       </c>
-      <c r="M54" s="12">
+      <c r="M54" s="1">
         <v>60</v>
       </c>
-      <c r="N54" s="12">
+      <c r="N54" s="1">
         <v>6000</v>
       </c>
       <c r="O54" s="1">
@@ -3536,43 +3533,43 @@
       <c r="A55" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="1">
         <v>3000</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="1">
         <v>6000</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="1">
         <v>3004</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="1">
         <v>5999</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="1">
         <v>5363</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="1">
         <v>832</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="1">
         <v>5009</v>
       </c>
-      <c r="I55" s="12">
+      <c r="I55" s="1">
         <v>0</v>
       </c>
-      <c r="J55" s="12">
+      <c r="J55" s="1">
         <v>5999</v>
       </c>
-      <c r="K55" s="12">
+      <c r="K55" s="1">
         <v>27</v>
       </c>
-      <c r="L55" s="12">
+      <c r="L55" s="1">
         <v>5418</v>
       </c>
-      <c r="M55" s="12">
+      <c r="M55" s="1">
         <v>60</v>
       </c>
-      <c r="N55" s="12">
+      <c r="N55" s="1">
         <v>5660</v>
       </c>
       <c r="O55" s="1">
@@ -3594,43 +3591,43 @@
       <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="1">
         <v>3000</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="1">
         <v>6000</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="1">
         <v>3003</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="1">
         <v>5879</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="1">
         <v>5059</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="1">
         <v>833</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H56" s="1">
         <v>5005</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I56" s="1">
         <v>0</v>
       </c>
-      <c r="J56" s="12">
+      <c r="J56" s="1">
         <v>5879</v>
       </c>
-      <c r="K56" s="12">
+      <c r="K56" s="1">
         <v>56</v>
       </c>
-      <c r="L56" s="12">
+      <c r="L56" s="1">
         <v>5182</v>
       </c>
-      <c r="M56" s="12">
+      <c r="M56" s="1">
         <v>60</v>
       </c>
-      <c r="N56" s="12">
+      <c r="N56" s="1">
         <v>5354</v>
       </c>
       <c r="O56" s="1">
@@ -3652,43 +3649,43 @@
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="1">
         <v>1000</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="1">
         <v>5909</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="1">
         <v>2952</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="1">
         <v>3659</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="1">
         <v>3689</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="1">
         <v>337</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="1">
         <v>3670</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I57" s="1">
         <v>58</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J57" s="1">
         <v>3733</v>
       </c>
-      <c r="K57" s="12">
+      <c r="K57" s="1">
         <v>31</v>
       </c>
-      <c r="L57" s="12">
+      <c r="L57" s="1">
         <v>3728</v>
       </c>
-      <c r="M57" s="12">
+      <c r="M57" s="1">
         <v>60</v>
       </c>
-      <c r="N57" s="12">
+      <c r="N57" s="1">
         <v>3760</v>
       </c>
       <c r="O57" s="1"/>
@@ -3708,43 +3705,43 @@
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="1">
         <v>1000</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="1">
         <v>5916</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="1">
         <v>2955</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="1">
         <v>3664</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="1">
         <v>3696</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="1">
         <v>332</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="1">
         <v>3675</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I58" s="1">
         <v>61</v>
       </c>
-      <c r="J58" s="12">
+      <c r="J58" s="1">
         <v>3755</v>
       </c>
-      <c r="K58" s="12">
+      <c r="K58" s="1">
         <v>30</v>
       </c>
-      <c r="L58" s="12">
+      <c r="L58" s="1">
         <v>3733</v>
       </c>
-      <c r="M58" s="12">
+      <c r="M58" s="1">
         <v>60</v>
       </c>
-      <c r="N58" s="12">
+      <c r="N58" s="1">
         <v>3761</v>
       </c>
       <c r="O58" s="1"/>
@@ -3764,43 +3761,43 @@
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="1">
         <v>1000</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="1">
         <v>5914</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="1">
         <v>2952</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="1">
         <v>3634</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="1">
         <v>3692</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G59" s="1">
         <v>331</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="1">
         <v>3671</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I59" s="1">
         <v>55</v>
       </c>
-      <c r="J59" s="12">
+      <c r="J59" s="1">
         <v>3722</v>
       </c>
-      <c r="K59" s="12">
+      <c r="K59" s="1">
         <v>29</v>
       </c>
-      <c r="L59" s="12">
+      <c r="L59" s="1">
         <v>3729</v>
       </c>
-      <c r="M59" s="12">
+      <c r="M59" s="1">
         <v>60</v>
       </c>
-      <c r="N59" s="12">
+      <c r="N59" s="1">
         <v>3756</v>
       </c>
       <c r="O59" s="1"/>
@@ -3820,43 +3817,43 @@
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="1">
         <v>1000</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="1">
         <v>5916</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="1">
         <v>2953</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="1">
         <v>3664</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="1">
         <v>3693</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="1">
         <v>334</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="1">
         <v>3668</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I60" s="1">
         <v>46</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J60" s="1">
         <v>3729</v>
       </c>
-      <c r="K60" s="12">
+      <c r="K60" s="1">
         <v>29</v>
       </c>
-      <c r="L60" s="12">
+      <c r="L60" s="1">
         <v>3729</v>
       </c>
-      <c r="M60" s="12">
+      <c r="M60" s="1">
         <v>60</v>
       </c>
-      <c r="N60" s="12">
+      <c r="N60" s="1">
         <v>3758</v>
       </c>
       <c r="O60" s="1"/>
@@ -30211,6 +30208,6 @@
     <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>